--- a/docs/esquema-gantt.xlsx
+++ b/docs/esquema-gantt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nodejs_worksspace\Bamer Planeamento\planeamento-api\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC43959C-2877-4560-8B0B-1A0E61DDDC10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494F4999-EFCD-45A5-812E-378132764974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{70462289-86EC-416D-B0F9-0C47F8DA117E}"/>
+    <workbookView xWindow="2265" yWindow="615" windowWidth="17280" windowHeight="14235" xr2:uid="{70462289-86EC-416D-B0F9-0C47F8DA117E}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
